--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>2021</t>
   </si>
@@ -23,25 +23,31 @@
     <t>2022</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>수익(매출액)</t>
   </si>
   <si>
     <t>영업이익</t>
   </si>
   <si>
-    <t>수익(매출액)</t>
+    <t>제품 및 재공품 등의 변동</t>
+  </si>
+  <si>
+    <t>279,604,799</t>
   </si>
   <si>
     <t>51,633,856</t>
   </si>
   <si>
-    <t>279,604,799</t>
+    <t>(4,517,560)</t>
+  </si>
+  <si>
+    <t>302,231,360</t>
   </si>
   <si>
     <t>43,376,630</t>
   </si>
   <si>
-    <t>302,231,360</t>
+    <t>(10,355,548)</t>
   </si>
   <si>
     <t>매출액</t>
@@ -414,16 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,24 +436,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -467,9 +481,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,21 +493,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
